--- a/4x4x4solver_v4/analytics.xlsx
+++ b/4x4x4solver_v4/analytics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Solvour\4x4x4solver_v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3B7F6A-7377-40AD-B794-5AC35722F26D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070FA85-1950-47CB-98D2-428D6F7F5206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{0E346A05-C6C6-46A3-A542-0F0BF0AD433D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{0E346A05-C6C6-46A3-A542-0F0BF0AD433D}"/>
   </bookViews>
   <sheets>
     <sheet name="20200802" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ユークリッド&amp;最大値5-3-18" sheetId="5" r:id="rId5"/>
     <sheet name="ユークリッド&amp;最大値5-3-10" sheetId="6" r:id="rId6"/>
     <sheet name="ユークリッド&amp;最大値5-5-10" sheetId="7" r:id="rId7"/>
+    <sheet name="ユークリッド&amp;最大値3-5-7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="25">
   <si>
     <t>phase1</t>
     <phoneticPr fontId="18"/>
@@ -5501,6 +5502,707 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>phase1&amp;all</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ユークリッド&amp;最大値3-5-7'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ユークリッド&amp;最大値3-5-7'!$J$2:$J$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>2.0807747839999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71759819999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.358338830000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2069931030000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.78371024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.652789120000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.148986579999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.28588414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70379018800000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.575368879999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.3048079</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60295486499999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55954146400000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32909226400000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.923416380000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1139178279999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89823579799999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.395148993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2548639770000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.737602949999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.130973819999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9457540510000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8863139150000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6969299319999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.1553494930000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.36909818599999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.154069659999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.735343929999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.14024758</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26.981122020000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.113241429999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.72417212</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.030147790000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.30250406</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0681326389999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.450126170000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1330926419999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.092018127</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1840357780000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.3220176700000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.1526703830000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.59768891300000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.196092609999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.8793697359999992</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.72612453</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.8192606</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.6739230159999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.87852955</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.259420633</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>130.63476109999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.424890041</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.203085184</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.3928172590000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.2578506469999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.1323726179999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2670423980000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.3058567</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4917385580000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.325234650000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0545890330000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.17961335</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.1816473009999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43.422332050000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ユークリッド&amp;最大値3-5-7'!$O$2:$O$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>11.390422109999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6058292390000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.563769819999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.18392944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.477776290000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.568900110000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.908817529999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.7749033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6131732460000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.22389531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.6169908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.12566376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.854148389999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.85297012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.127544159999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.177293540000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7591452600000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4301908020000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.97498727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.984018800000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.009594920000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.359042410000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.980295419999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.100546600000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6521787640000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.011277199999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.322724820000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.968982220000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.065363649999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.519416569999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.37346578</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.06172323</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29.398186450000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.670614</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.54745007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.41061831</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.272332670000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.561437850000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.425187829999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.23255706</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.9610486030000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.666605949</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.67086935</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.596914529999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.41323113</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.08389974</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.08069253</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.175084590000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.228360179999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>150.2208905</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.587741139999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.3476786609999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.815940380000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15.43688822</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15.098850730000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.950776579999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30.577534440000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.10836482</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27.969412800000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22.14130449</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.797863249999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.03776622</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>52.479005340000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5257-45B8-841F-1D576E107F4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="588820360"/>
+        <c:axId val="588825936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="588820360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588825936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="588825936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588820360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -13220,6 +13922,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15644,6 +16386,522 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20790,6 +22048,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE4830F-6021-403D-B2A0-487F8E4E6139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -48630,8 +49929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C14194-F6EA-481B-AF5B-69B4C2B0B3F0}">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -53107,4 +54406,2859 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4404329-BD3B-462C-85BA-681E3D8499F0}">
+  <dimension ref="A1:S64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>3.4951448000000003E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.0807747839999999</v>
+      </c>
+      <c r="K2">
+        <v>0.218431234</v>
+      </c>
+      <c r="L2">
+        <v>0.16755056400000001</v>
+      </c>
+      <c r="M2">
+        <v>2.9480788709999999</v>
+      </c>
+      <c r="N2">
+        <v>5.9058279990000004</v>
+      </c>
+      <c r="O2">
+        <v>11.390422109999999</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>9.9825900000000004E-4</v>
+      </c>
+      <c r="J3">
+        <v>0.71759819999999996</v>
+      </c>
+      <c r="K3">
+        <v>0.93490171399999999</v>
+      </c>
+      <c r="L3">
+        <v>0.172539473</v>
+      </c>
+      <c r="M3">
+        <v>2.5877141950000002</v>
+      </c>
+      <c r="N3">
+        <v>2.1591653819999999</v>
+      </c>
+      <c r="O3">
+        <v>6.6058292390000002</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE(O:O)</f>
+        <v>22.327049036412696</v>
+      </c>
+      <c r="S3">
+        <f>AVERAGE(G:G)</f>
+        <v>60.476190476190474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>61</v>
+      </c>
+      <c r="I4">
+        <v>9.5987299999999998E-4</v>
+      </c>
+      <c r="J4">
+        <v>51.358338830000001</v>
+      </c>
+      <c r="K4">
+        <v>2.0805370810000001</v>
+      </c>
+      <c r="L4">
+        <v>1.7766828539999999</v>
+      </c>
+      <c r="M4">
+        <v>4.0240290000000001E-3</v>
+      </c>
+      <c r="N4">
+        <v>1.316822052</v>
+      </c>
+      <c r="O4">
+        <v>56.563769819999997</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>62</v>
+      </c>
+      <c r="I5">
+        <v>1.9958020000000001E-3</v>
+      </c>
+      <c r="J5">
+        <v>5.2069931030000003</v>
+      </c>
+      <c r="K5">
+        <v>1.196328402</v>
+      </c>
+      <c r="L5">
+        <v>5.4883717999999998E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.76045227100000001</v>
+      </c>
+      <c r="N5">
+        <v>4.9414286609999998</v>
+      </c>
+      <c r="O5">
+        <v>12.18392944</v>
+      </c>
+      <c r="Q5">
+        <f>_xlfn.STDEV.S(O:O)</f>
+        <v>21.186272977151447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>61</v>
+      </c>
+      <c r="I6">
+        <v>9.9706600000000001E-4</v>
+      </c>
+      <c r="J6">
+        <v>14.78371024</v>
+      </c>
+      <c r="K6">
+        <v>2.332555771</v>
+      </c>
+      <c r="L6">
+        <v>0.58746528600000003</v>
+      </c>
+      <c r="M6">
+        <v>2.0342743400000001</v>
+      </c>
+      <c r="N6">
+        <v>6.6450717450000001</v>
+      </c>
+      <c r="O6">
+        <v>26.477776290000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>28.652789120000001</v>
+      </c>
+      <c r="K7">
+        <v>2.2183606619999998</v>
+      </c>
+      <c r="L7">
+        <v>0.37227296799999998</v>
+      </c>
+      <c r="M7">
+        <v>1.7682678700000001</v>
+      </c>
+      <c r="N7">
+        <v>0.46828913700000002</v>
+      </c>
+      <c r="O7">
+        <v>33.568900110000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>63</v>
+      </c>
+      <c r="I8">
+        <v>9.9706600000000001E-4</v>
+      </c>
+      <c r="J8">
+        <v>51.148986579999999</v>
+      </c>
+      <c r="K8">
+        <v>2.529123545</v>
+      </c>
+      <c r="L8">
+        <v>0.26091217999999999</v>
+      </c>
+      <c r="M8">
+        <v>5.5854985709999996</v>
+      </c>
+      <c r="N8">
+        <v>5.3594110009999998</v>
+      </c>
+      <c r="O8">
+        <v>64.908817529999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>55</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>12.28588414</v>
+      </c>
+      <c r="K9">
+        <v>0.89536380800000004</v>
+      </c>
+      <c r="L9">
+        <v>1.6955136999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>4.9865723000000001E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.4959774019999998</v>
+      </c>
+      <c r="O9">
+        <v>15.7749033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>9.9468199999999999E-4</v>
+      </c>
+      <c r="J10">
+        <v>0.70379018800000004</v>
+      </c>
+      <c r="K10">
+        <v>7.9784390000000004E-3</v>
+      </c>
+      <c r="L10">
+        <v>0.16908979399999999</v>
+      </c>
+      <c r="M10">
+        <v>0.58395290399999999</v>
+      </c>
+      <c r="N10">
+        <v>1.1206433769999999</v>
+      </c>
+      <c r="O10">
+        <v>2.6131732460000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>63</v>
+      </c>
+      <c r="I11">
+        <v>9.9682799999999995E-4</v>
+      </c>
+      <c r="J11">
+        <v>10.575368879999999</v>
+      </c>
+      <c r="K11">
+        <v>0.213464975</v>
+      </c>
+      <c r="L11">
+        <v>0.53529787100000004</v>
+      </c>
+      <c r="M11">
+        <v>4.0570540429999999</v>
+      </c>
+      <c r="N11">
+        <v>13.812618970000001</v>
+      </c>
+      <c r="O11">
+        <v>29.22389531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>59</v>
+      </c>
+      <c r="I12">
+        <v>9.8490699999999993E-4</v>
+      </c>
+      <c r="J12">
+        <v>16.3048079</v>
+      </c>
+      <c r="K12">
+        <v>0.36006975200000002</v>
+      </c>
+      <c r="L12">
+        <v>0.25332379300000002</v>
+      </c>
+      <c r="M12">
+        <v>0.76135730700000004</v>
+      </c>
+      <c r="N12">
+        <v>6.908604145</v>
+      </c>
+      <c r="O12">
+        <v>24.6169908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>62</v>
+      </c>
+      <c r="I13">
+        <v>9.6774100000000004E-4</v>
+      </c>
+      <c r="J13">
+        <v>0.60295486499999995</v>
+      </c>
+      <c r="K13">
+        <v>2.20275116</v>
+      </c>
+      <c r="L13">
+        <v>6.7335844000000006E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.049964428</v>
+      </c>
+      <c r="N13">
+        <v>8.1185410020000006</v>
+      </c>
+      <c r="O13">
+        <v>12.12566376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>59</v>
+      </c>
+      <c r="I14">
+        <v>9.6154200000000002E-4</v>
+      </c>
+      <c r="J14">
+        <v>0.55954146400000004</v>
+      </c>
+      <c r="K14">
+        <v>0.15731620800000001</v>
+      </c>
+      <c r="L14">
+        <v>4.0159230000000002E-3</v>
+      </c>
+      <c r="M14">
+        <v>8.8491678000000004E-2</v>
+      </c>
+      <c r="N14">
+        <v>17.022199390000001</v>
+      </c>
+      <c r="O14">
+        <v>17.854148389999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.32909226400000002</v>
+      </c>
+      <c r="K15">
+        <v>5.5616693499999998</v>
+      </c>
+      <c r="L15">
+        <v>0.27628755599999999</v>
+      </c>
+      <c r="M15">
+        <v>2.9747717379999998</v>
+      </c>
+      <c r="N15">
+        <v>3.6832318310000001</v>
+      </c>
+      <c r="O15">
+        <v>12.85297012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>64</v>
+      </c>
+      <c r="I16">
+        <v>9.984970000000001E-4</v>
+      </c>
+      <c r="J16">
+        <v>10.923416380000001</v>
+      </c>
+      <c r="K16">
+        <v>0.91342854500000004</v>
+      </c>
+      <c r="L16">
+        <v>1.4040329460000001</v>
+      </c>
+      <c r="M16">
+        <v>1.2539458269999999</v>
+      </c>
+      <c r="N16">
+        <v>3.609911919</v>
+      </c>
+      <c r="O16">
+        <v>18.127544159999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>57</v>
+      </c>
+      <c r="I17">
+        <v>9.9706600000000001E-4</v>
+      </c>
+      <c r="J17">
+        <v>4.1139178279999999</v>
+      </c>
+      <c r="K17">
+        <v>4.9125039580000003</v>
+      </c>
+      <c r="L17">
+        <v>2.9919149999999999E-3</v>
+      </c>
+      <c r="M17">
+        <v>1.1245446210000001</v>
+      </c>
+      <c r="N17">
+        <v>5.020142E-3</v>
+      </c>
+      <c r="O17">
+        <v>10.177293540000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>59</v>
+      </c>
+      <c r="I18">
+        <v>9.9921199999999997E-4</v>
+      </c>
+      <c r="J18">
+        <v>0.89823579799999997</v>
+      </c>
+      <c r="K18">
+        <v>1.9171442990000001</v>
+      </c>
+      <c r="L18">
+        <v>5.2887917E-2</v>
+      </c>
+      <c r="M18">
+        <v>5.2856922000000001E-2</v>
+      </c>
+      <c r="N18">
+        <v>4.8171186449999999</v>
+      </c>
+      <c r="O18">
+        <v>7.7591452600000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="I19">
+        <v>9.9706600000000001E-4</v>
+      </c>
+      <c r="J19">
+        <v>0.395148993</v>
+      </c>
+      <c r="K19">
+        <v>1.2789087299999999</v>
+      </c>
+      <c r="L19">
+        <v>0.39076423599999999</v>
+      </c>
+      <c r="M19">
+        <v>4.3265619280000003</v>
+      </c>
+      <c r="N19">
+        <v>1.7948627000000002E-2</v>
+      </c>
+      <c r="O19">
+        <v>6.4301908020000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>59</v>
+      </c>
+      <c r="I20">
+        <v>1.9936559999999999E-3</v>
+      </c>
+      <c r="J20">
+        <v>1.2548639770000001</v>
+      </c>
+      <c r="K20">
+        <v>4.4526099999999999E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.54317188299999997</v>
+      </c>
+      <c r="M20">
+        <v>0.22441649399999999</v>
+      </c>
+      <c r="N20">
+        <v>25.855099200000002</v>
+      </c>
+      <c r="O20">
+        <v>27.97498727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>62</v>
+      </c>
+      <c r="I21">
+        <v>1.0013579999999999E-3</v>
+      </c>
+      <c r="J21">
+        <v>67.737602949999996</v>
+      </c>
+      <c r="K21">
+        <v>0.92284440999999995</v>
+      </c>
+      <c r="L21">
+        <v>1.9277198310000001</v>
+      </c>
+      <c r="M21">
+        <v>5.0902604999999997E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.31416010900000002</v>
+      </c>
+      <c r="O21">
+        <v>70.984018800000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+      <c r="I22">
+        <v>9.9515900000000002E-4</v>
+      </c>
+      <c r="J22">
+        <v>13.130973819999999</v>
+      </c>
+      <c r="K22">
+        <v>2.1166071889999998</v>
+      </c>
+      <c r="L22">
+        <v>0.13968634599999999</v>
+      </c>
+      <c r="M22">
+        <v>0.42606377600000001</v>
+      </c>
+      <c r="N22">
+        <v>0.16257047699999999</v>
+      </c>
+      <c r="O22">
+        <v>16.009594920000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>3.9457540510000002</v>
+      </c>
+      <c r="K23">
+        <v>1.434237719</v>
+      </c>
+      <c r="L23">
+        <v>2.0975827999999998E-2</v>
+      </c>
+      <c r="M23">
+        <v>16.40873861</v>
+      </c>
+      <c r="N23">
+        <v>2.5324928760000001</v>
+      </c>
+      <c r="O23">
+        <v>24.359042410000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>64</v>
+      </c>
+      <c r="I24">
+        <v>1.9958020000000001E-3</v>
+      </c>
+      <c r="J24">
+        <v>2.8863139150000001</v>
+      </c>
+      <c r="K24">
+        <v>0.120675802</v>
+      </c>
+      <c r="L24">
+        <v>2.3015117649999999</v>
+      </c>
+      <c r="M24">
+        <v>0.65476679800000004</v>
+      </c>
+      <c r="N24">
+        <v>5.9961104389999997</v>
+      </c>
+      <c r="O24">
+        <v>11.980295419999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>63</v>
+      </c>
+      <c r="I25">
+        <v>9.9539799999999999E-4</v>
+      </c>
+      <c r="J25">
+        <v>5.6969299319999998</v>
+      </c>
+      <c r="K25">
+        <v>5.9584381579999999</v>
+      </c>
+      <c r="L25">
+        <v>3.4326260089999998</v>
+      </c>
+      <c r="M25">
+        <v>9.6637043949999999</v>
+      </c>
+      <c r="N25">
+        <v>1.3209462169999999</v>
+      </c>
+      <c r="O25">
+        <v>26.100546600000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>61</v>
+      </c>
+      <c r="I26">
+        <v>9.984970000000001E-4</v>
+      </c>
+      <c r="J26">
+        <v>5.1553494930000001</v>
+      </c>
+      <c r="K26">
+        <v>1.4765963550000001</v>
+      </c>
+      <c r="L26">
+        <v>1.1967659E-2</v>
+      </c>
+      <c r="M26">
+        <v>0.52858686399999999</v>
+      </c>
+      <c r="N26">
+        <v>0.45079326600000003</v>
+      </c>
+      <c r="O26">
+        <v>7.6521787640000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>57</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.36909818599999999</v>
+      </c>
+      <c r="K27">
+        <v>20.003845210000001</v>
+      </c>
+      <c r="L27">
+        <v>0.14187789000000001</v>
+      </c>
+      <c r="M27">
+        <v>6.6101788999999994E-2</v>
+      </c>
+      <c r="N27">
+        <v>0.40804600699999999</v>
+      </c>
+      <c r="O27">
+        <v>21.011277199999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="I28">
+        <v>9.9659000000000011E-4</v>
+      </c>
+      <c r="J28">
+        <v>14.154069659999999</v>
+      </c>
+      <c r="K28">
+        <v>2.032761335</v>
+      </c>
+      <c r="L28">
+        <v>1.3012170999999999E-2</v>
+      </c>
+      <c r="M28">
+        <v>1.1488997940000001</v>
+      </c>
+      <c r="N28">
+        <v>8.9490494730000005</v>
+      </c>
+      <c r="O28">
+        <v>26.322724820000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>62</v>
+      </c>
+      <c r="I29">
+        <v>9.9802000000000007E-4</v>
+      </c>
+      <c r="J29">
+        <v>23.735343929999999</v>
+      </c>
+      <c r="K29">
+        <v>1.492012501</v>
+      </c>
+      <c r="L29">
+        <v>1.0992271899999999</v>
+      </c>
+      <c r="M29">
+        <v>0.81293439899999997</v>
+      </c>
+      <c r="N29">
+        <v>0.79865789399999998</v>
+      </c>
+      <c r="O29">
+        <v>27.968982220000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>61</v>
+      </c>
+      <c r="I30">
+        <v>1.9931789999999999E-3</v>
+      </c>
+      <c r="J30">
+        <v>17.14024758</v>
+      </c>
+      <c r="K30">
+        <v>2.7923917770000002</v>
+      </c>
+      <c r="L30">
+        <v>6.4825773000000003E-2</v>
+      </c>
+      <c r="M30">
+        <v>0.50465011599999998</v>
+      </c>
+      <c r="N30">
+        <v>5.5423035619999999</v>
+      </c>
+      <c r="O30">
+        <v>26.065363649999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>60</v>
+      </c>
+      <c r="I31">
+        <v>9.9635099999999992E-4</v>
+      </c>
+      <c r="J31">
+        <v>26.981122020000001</v>
+      </c>
+      <c r="K31">
+        <v>0.28025198000000001</v>
+      </c>
+      <c r="L31">
+        <v>0.29572320000000002</v>
+      </c>
+      <c r="M31">
+        <v>0.98479890800000003</v>
+      </c>
+      <c r="N31">
+        <v>6.9505944250000002</v>
+      </c>
+      <c r="O31">
+        <v>35.519416569999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>62</v>
+      </c>
+      <c r="I32">
+        <v>9.9563600000000005E-4</v>
+      </c>
+      <c r="J32">
+        <v>24.113241429999999</v>
+      </c>
+      <c r="K32">
+        <v>3.1172621249999999</v>
+      </c>
+      <c r="L32">
+        <v>0.22243166</v>
+      </c>
+      <c r="M32">
+        <v>0.56748247100000004</v>
+      </c>
+      <c r="N32">
+        <v>0.32512974700000002</v>
+      </c>
+      <c r="O32">
+        <v>28.37346578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>63</v>
+      </c>
+      <c r="I33">
+        <v>9.9825900000000004E-4</v>
+      </c>
+      <c r="J33">
+        <v>12.72417212</v>
+      </c>
+      <c r="K33">
+        <v>1.303136587</v>
+      </c>
+      <c r="L33">
+        <v>0.32925748799999999</v>
+      </c>
+      <c r="M33">
+        <v>0.20743656199999999</v>
+      </c>
+      <c r="N33">
+        <v>0.464509964</v>
+      </c>
+      <c r="O33">
+        <v>15.06172323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>61</v>
+      </c>
+      <c r="I34">
+        <v>9.9563600000000005E-4</v>
+      </c>
+      <c r="J34">
+        <v>24.030147790000001</v>
+      </c>
+      <c r="K34">
+        <v>4.3163077830000001</v>
+      </c>
+      <c r="L34">
+        <v>4.5878649000000001E-2</v>
+      </c>
+      <c r="M34">
+        <v>0.55705952599999997</v>
+      </c>
+      <c r="N34">
+        <v>0.41788697200000002</v>
+      </c>
+      <c r="O34">
+        <v>29.398186450000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>59</v>
+      </c>
+      <c r="I35">
+        <v>1.995325E-3</v>
+      </c>
+      <c r="J35">
+        <v>11.30250406</v>
+      </c>
+      <c r="K35">
+        <v>3.2912032600000001</v>
+      </c>
+      <c r="L35">
+        <v>0.30623197600000002</v>
+      </c>
+      <c r="M35">
+        <v>7.2832108000000007E-2</v>
+      </c>
+      <c r="N35">
+        <v>1.667106867</v>
+      </c>
+      <c r="O35">
+        <v>16.670614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+      <c r="I36">
+        <v>9.9349000000000008E-4</v>
+      </c>
+      <c r="J36">
+        <v>2.0681326389999999</v>
+      </c>
+      <c r="K36">
+        <v>5.6942105290000002</v>
+      </c>
+      <c r="L36">
+        <v>0.169586658</v>
+      </c>
+      <c r="M36">
+        <v>1.508708239</v>
+      </c>
+      <c r="N36">
+        <v>1.0710363389999999</v>
+      </c>
+      <c r="O36">
+        <v>10.54745007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>62</v>
+      </c>
+      <c r="I37">
+        <v>9.9682799999999995E-4</v>
+      </c>
+      <c r="J37">
+        <v>10.450126170000001</v>
+      </c>
+      <c r="K37">
+        <v>0.83976030300000004</v>
+      </c>
+      <c r="L37">
+        <v>0.36361932800000002</v>
+      </c>
+      <c r="M37">
+        <v>2.9173613000000001E-2</v>
+      </c>
+      <c r="N37">
+        <v>4.6961095329999996</v>
+      </c>
+      <c r="O37">
+        <v>16.41061831</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <v>61</v>
+      </c>
+      <c r="I38">
+        <v>7.9796309999999992E-3</v>
+      </c>
+      <c r="J38">
+        <v>8.1330926419999994</v>
+      </c>
+      <c r="K38">
+        <v>9.9532600000000002E-3</v>
+      </c>
+      <c r="L38">
+        <v>0.92072057699999998</v>
+      </c>
+      <c r="M38">
+        <v>2.760567188</v>
+      </c>
+      <c r="N38">
+        <v>0.41033673300000001</v>
+      </c>
+      <c r="O38">
+        <v>12.272332670000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>57</v>
+      </c>
+      <c r="I39">
+        <v>9.9635099999999992E-4</v>
+      </c>
+      <c r="J39">
+        <v>1.092018127</v>
+      </c>
+      <c r="K39">
+        <v>1.9733483789999999</v>
+      </c>
+      <c r="L39">
+        <v>9.9778200000000001E-4</v>
+      </c>
+      <c r="M39">
+        <v>1.720784187</v>
+      </c>
+      <c r="N39">
+        <v>11.75138211</v>
+      </c>
+      <c r="O39">
+        <v>16.561437850000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>61</v>
+      </c>
+      <c r="I40">
+        <v>1.994371E-3</v>
+      </c>
+      <c r="J40">
+        <v>4.1840357780000001</v>
+      </c>
+      <c r="K40">
+        <v>4.4677853580000004</v>
+      </c>
+      <c r="L40">
+        <v>7.9758169999999996E-3</v>
+      </c>
+      <c r="M40">
+        <v>2.9636759760000002</v>
+      </c>
+      <c r="N40">
+        <v>7.7638132569999998</v>
+      </c>
+      <c r="O40">
+        <v>19.425187829999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>59</v>
+      </c>
+      <c r="I41">
+        <v>9.9539799999999999E-4</v>
+      </c>
+      <c r="J41">
+        <v>7.3220176700000001</v>
+      </c>
+      <c r="K41">
+        <v>3.8024940489999999</v>
+      </c>
+      <c r="L41">
+        <v>6.9814444000000003E-2</v>
+      </c>
+      <c r="M41">
+        <v>2.2332921030000001</v>
+      </c>
+      <c r="N41">
+        <v>0.78798413300000003</v>
+      </c>
+      <c r="O41">
+        <v>14.23255706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <v>56</v>
+      </c>
+      <c r="I42">
+        <v>9.9682799999999995E-4</v>
+      </c>
+      <c r="J42">
+        <v>7.1526703830000002</v>
+      </c>
+      <c r="K42">
+        <v>0.21542573000000001</v>
+      </c>
+      <c r="L42">
+        <v>0.14461660400000001</v>
+      </c>
+      <c r="M42">
+        <v>1.3963699E-2</v>
+      </c>
+      <c r="N42">
+        <v>0.40292263</v>
+      </c>
+      <c r="O42">
+        <v>7.9610486030000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>61</v>
+      </c>
+      <c r="I43">
+        <v>9.9706600000000001E-4</v>
+      </c>
+      <c r="J43">
+        <v>0.59768891300000004</v>
+      </c>
+      <c r="K43">
+        <v>1.3226704600000001</v>
+      </c>
+      <c r="L43">
+        <v>3.9928674999999997E-2</v>
+      </c>
+      <c r="M43">
+        <v>0.48284792900000001</v>
+      </c>
+      <c r="N43">
+        <v>0.19252777099999999</v>
+      </c>
+      <c r="O43">
+        <v>2.666605949</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="G44">
+        <v>62</v>
+      </c>
+      <c r="I44">
+        <v>9.9635099999999992E-4</v>
+      </c>
+      <c r="J44">
+        <v>12.196092609999999</v>
+      </c>
+      <c r="K44">
+        <v>0.72630524600000002</v>
+      </c>
+      <c r="L44">
+        <v>5.0363539999999998E-3</v>
+      </c>
+      <c r="M44">
+        <v>1.8915052409999999</v>
+      </c>
+      <c r="N44">
+        <v>0.82678532599999999</v>
+      </c>
+      <c r="O44">
+        <v>15.67086935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>14</v>
+      </c>
+      <c r="G45">
+        <v>57</v>
+      </c>
+      <c r="I45">
+        <v>9.9706600000000001E-4</v>
+      </c>
+      <c r="J45">
+        <v>9.8793697359999992</v>
+      </c>
+      <c r="K45">
+        <v>0.49273633999999999</v>
+      </c>
+      <c r="L45">
+        <v>3.2911061999999998E-2</v>
+      </c>
+      <c r="M45">
+        <v>0.185503483</v>
+      </c>
+      <c r="N45">
+        <v>1.975583315</v>
+      </c>
+      <c r="O45">
+        <v>12.596914529999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>65</v>
+      </c>
+      <c r="I46">
+        <v>9.9730499999999998E-4</v>
+      </c>
+      <c r="J46">
+        <v>18.72612453</v>
+      </c>
+      <c r="K46">
+        <v>1.3771348000000001</v>
+      </c>
+      <c r="L46">
+        <v>4.0761759279999996</v>
+      </c>
+      <c r="M46">
+        <v>3.1229772570000001</v>
+      </c>
+      <c r="N46">
+        <v>5.0540134910000001</v>
+      </c>
+      <c r="O46">
+        <v>32.41323113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>56</v>
+      </c>
+      <c r="I47">
+        <v>9.6321099999999995E-4</v>
+      </c>
+      <c r="J47">
+        <v>19.8192606</v>
+      </c>
+      <c r="K47">
+        <v>0.28252482400000001</v>
+      </c>
+      <c r="L47">
+        <v>1.049563885</v>
+      </c>
+      <c r="M47">
+        <v>1.9941329999999999E-3</v>
+      </c>
+      <c r="N47">
+        <v>0.87785601599999996</v>
+      </c>
+      <c r="O47">
+        <v>22.08389974</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>60</v>
+      </c>
+      <c r="I48">
+        <v>9.9706600000000001E-4</v>
+      </c>
+      <c r="J48">
+        <v>2.6739230159999998</v>
+      </c>
+      <c r="K48">
+        <v>2.0456981660000002</v>
+      </c>
+      <c r="L48">
+        <v>0.13666725199999999</v>
+      </c>
+      <c r="M48">
+        <v>4.3905127049999999</v>
+      </c>
+      <c r="N48">
+        <v>0.80796289399999999</v>
+      </c>
+      <c r="O48">
+        <v>10.08069253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>62</v>
+      </c>
+      <c r="I49">
+        <v>9.6559499999999997E-4</v>
+      </c>
+      <c r="J49">
+        <v>10.87852955</v>
+      </c>
+      <c r="K49">
+        <v>0.32694935800000002</v>
+      </c>
+      <c r="L49">
+        <v>0.95166730899999996</v>
+      </c>
+      <c r="M49">
+        <v>0.40394616100000003</v>
+      </c>
+      <c r="N49">
+        <v>2.57425499</v>
+      </c>
+      <c r="O49">
+        <v>15.175084590000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <v>64</v>
+      </c>
+      <c r="I50">
+        <v>9.9682799999999995E-4</v>
+      </c>
+      <c r="J50">
+        <v>1.259420633</v>
+      </c>
+      <c r="K50">
+        <v>2.8157317640000001</v>
+      </c>
+      <c r="L50">
+        <v>7.6916694999999993E-2</v>
+      </c>
+      <c r="M50">
+        <v>2.4052171709999999</v>
+      </c>
+      <c r="N50">
+        <v>7.6322288509999998</v>
+      </c>
+      <c r="O50">
+        <v>14.228360179999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>63</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>130.63476109999999</v>
+      </c>
+      <c r="K51">
+        <v>13.82299924</v>
+      </c>
+      <c r="L51">
+        <v>9.9733352999999997E-2</v>
+      </c>
+      <c r="M51">
+        <v>3.5150215629999999</v>
+      </c>
+      <c r="N51">
+        <v>2.1149680609999999</v>
+      </c>
+      <c r="O51">
+        <v>150.2208905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>16</v>
+      </c>
+      <c r="G52">
+        <v>57</v>
+      </c>
+      <c r="I52">
+        <v>9.9420499999999996E-4</v>
+      </c>
+      <c r="J52">
+        <v>0.424890041</v>
+      </c>
+      <c r="K52">
+        <v>1.2965918E-2</v>
+      </c>
+      <c r="L52">
+        <v>3.1152589320000001</v>
+      </c>
+      <c r="M52">
+        <v>6.0219760000000001E-3</v>
+      </c>
+      <c r="N52">
+        <v>12.92799544</v>
+      </c>
+      <c r="O52">
+        <v>16.587741139999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>56</v>
+      </c>
+      <c r="I53">
+        <v>9.9659000000000011E-4</v>
+      </c>
+      <c r="J53">
+        <v>0.203085184</v>
+      </c>
+      <c r="K53">
+        <v>0.22694992999999999</v>
+      </c>
+      <c r="L53">
+        <v>0.26529383699999998</v>
+      </c>
+      <c r="M53">
+        <v>3.024101E-3</v>
+      </c>
+      <c r="N53">
+        <v>4.6203186509999998</v>
+      </c>
+      <c r="O53">
+        <v>5.3476786609999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>62</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>6.3928172590000001</v>
+      </c>
+      <c r="K54">
+        <v>1.2935690879999999</v>
+      </c>
+      <c r="L54">
+        <v>0.57295608499999995</v>
+      </c>
+      <c r="M54">
+        <v>0.75812578200000003</v>
+      </c>
+      <c r="N54">
+        <v>3.768633366</v>
+      </c>
+      <c r="O54">
+        <v>12.815940380000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>14</v>
+      </c>
+      <c r="G55">
+        <v>59</v>
+      </c>
+      <c r="I55">
+        <v>9.6130399999999996E-4</v>
+      </c>
+      <c r="J55">
+        <v>9.2578506469999997</v>
+      </c>
+      <c r="K55">
+        <v>0.393520594</v>
+      </c>
+      <c r="L55">
+        <v>1.2926406859999999</v>
+      </c>
+      <c r="M55">
+        <v>1.727426291</v>
+      </c>
+      <c r="N55">
+        <v>2.7428903579999999</v>
+      </c>
+      <c r="O55">
+        <v>15.43688822</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>14</v>
+      </c>
+      <c r="G56">
+        <v>62</v>
+      </c>
+      <c r="I56">
+        <v>9.9754300000000004E-4</v>
+      </c>
+      <c r="J56">
+        <v>7.1323726179999998</v>
+      </c>
+      <c r="K56">
+        <v>4.0810246469999996</v>
+      </c>
+      <c r="L56">
+        <v>1.011445999</v>
+      </c>
+      <c r="M56">
+        <v>2.6991922860000002</v>
+      </c>
+      <c r="N56">
+        <v>0.15313148500000001</v>
+      </c>
+      <c r="O56">
+        <v>15.098850730000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <v>61</v>
+      </c>
+      <c r="I57">
+        <v>9.9802000000000007E-4</v>
+      </c>
+      <c r="J57">
+        <v>2.2670423980000001</v>
+      </c>
+      <c r="K57">
+        <v>7.9233956340000002</v>
+      </c>
+      <c r="L57">
+        <v>0.16861748700000001</v>
+      </c>
+      <c r="M57">
+        <v>2.8805797100000001</v>
+      </c>
+      <c r="N57">
+        <v>0.65236401600000005</v>
+      </c>
+      <c r="O57">
+        <v>13.950776579999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>15</v>
+      </c>
+      <c r="G58">
+        <v>59</v>
+      </c>
+      <c r="I58">
+        <v>1.995564E-3</v>
+      </c>
+      <c r="J58">
+        <v>22.3058567</v>
+      </c>
+      <c r="K58">
+        <v>8.6342573000000006E-2</v>
+      </c>
+      <c r="L58">
+        <v>0.50013732899999996</v>
+      </c>
+      <c r="M58">
+        <v>3.2898426000000001E-2</v>
+      </c>
+      <c r="N58">
+        <v>7.6174416540000003</v>
+      </c>
+      <c r="O58">
+        <v>30.577534440000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>14</v>
+      </c>
+      <c r="G59">
+        <v>61</v>
+      </c>
+      <c r="I59">
+        <v>9.6416500000000001E-4</v>
+      </c>
+      <c r="J59">
+        <v>2.4917385580000002</v>
+      </c>
+      <c r="K59">
+        <v>0.125229597</v>
+      </c>
+      <c r="L59">
+        <v>0.15664339099999999</v>
+      </c>
+      <c r="M59">
+        <v>3.4392776490000001</v>
+      </c>
+      <c r="N59">
+        <v>4.8646070960000003</v>
+      </c>
+      <c r="O59">
+        <v>11.10836482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>16</v>
+      </c>
+      <c r="G60">
+        <v>65</v>
+      </c>
+      <c r="I60">
+        <v>9.9921199999999997E-4</v>
+      </c>
+      <c r="J60">
+        <v>10.325234650000001</v>
+      </c>
+      <c r="K60">
+        <v>6.8368456359999996</v>
+      </c>
+      <c r="L60">
+        <v>1.967555046</v>
+      </c>
+      <c r="M60">
+        <v>1.369639397</v>
+      </c>
+      <c r="N60">
+        <v>7.4393258089999996</v>
+      </c>
+      <c r="O60">
+        <v>27.969412800000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>58</v>
+      </c>
+      <c r="I61">
+        <v>9.9682799999999995E-4</v>
+      </c>
+      <c r="J61">
+        <v>3.0545890330000001</v>
+      </c>
+      <c r="K61">
+        <v>0.93301963799999998</v>
+      </c>
+      <c r="L61">
+        <v>6.7423581999999996E-2</v>
+      </c>
+      <c r="M61">
+        <v>0.12117981899999999</v>
+      </c>
+      <c r="N61">
+        <v>17.921207899999999</v>
+      </c>
+      <c r="O61">
+        <v>22.14130449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>11</v>
+      </c>
+      <c r="F62">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>61</v>
+      </c>
+      <c r="I62">
+        <v>9.9730499999999998E-4</v>
+      </c>
+      <c r="J62">
+        <v>10.17961335</v>
+      </c>
+      <c r="K62">
+        <v>3.0134160520000002</v>
+      </c>
+      <c r="L62">
+        <v>0.96373367300000001</v>
+      </c>
+      <c r="M62">
+        <v>5.6086761950000001</v>
+      </c>
+      <c r="N62">
+        <v>1.1979342E-2</v>
+      </c>
+      <c r="O62">
+        <v>19.797863249999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>14</v>
+      </c>
+      <c r="G63">
+        <v>61</v>
+      </c>
+      <c r="I63">
+        <v>9.9778200000000001E-4</v>
+      </c>
+      <c r="J63">
+        <v>5.1816473009999999</v>
+      </c>
+      <c r="K63">
+        <v>2.3977694509999998</v>
+      </c>
+      <c r="L63">
+        <v>0.37205195400000002</v>
+      </c>
+      <c r="M63">
+        <v>1.516489983</v>
+      </c>
+      <c r="N63">
+        <v>0.53257298500000005</v>
+      </c>
+      <c r="O63">
+        <v>10.03776622</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>16</v>
+      </c>
+      <c r="G64">
+        <v>62</v>
+      </c>
+      <c r="I64">
+        <v>9.9730499999999998E-4</v>
+      </c>
+      <c r="J64">
+        <v>43.422332050000001</v>
+      </c>
+      <c r="K64">
+        <v>6.9813967000000005E-2</v>
+      </c>
+      <c r="L64">
+        <v>5.7844399999999997E-2</v>
+      </c>
+      <c r="M64">
+        <v>1.2847878930000001</v>
+      </c>
+      <c r="N64">
+        <v>7.6053125860000002</v>
+      </c>
+      <c r="O64">
+        <v>52.479005340000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>